--- a/results/mod2.corrupt_salience.eff.COMB.xlsx
+++ b/results/mod2.corrupt_salience.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.151304879471407</v>
+        <v>-0.15130567816608</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0486165093246387</v>
+        <v>0.0486161896759843</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.246591486801754</v>
+        <v>-0.246591658996578</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0560182721410589</v>
+        <v>-0.0560196973355832</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.11221191264601</v>
+        <v>-3.11224880383465</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00185691152561679</v>
+        <v>0.00185667947680212</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1364542227825</v>
+        <v>0.136456445505986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0497013372824799</v>
+        <v>0.0497009956115847</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0390413917253613</v>
+        <v>0.0390442841114968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.233867053839638</v>
+        <v>0.233868606900476</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74548392947569</v>
+        <v>2.74554752529303</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00604217266652416</v>
+        <v>0.00604100170169793</v>
       </c>
     </row>
   </sheetData>
